--- a/biology/Zoologie/Cheliomyrmex/Cheliomyrmex.xlsx
+++ b/biology/Zoologie/Cheliomyrmex/Cheliomyrmex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheliomyrmex est un genre de fourmis légionnaires de la sous-famille des Dorylinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cheliomyrmex Mayr, 1870[1].
-Cheliomyrmex a pour synonyme[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cheliomyrmex Mayr, 1870.
+Cheliomyrmex a pour synonyme :
 Cheliomirmex Forel, 1878
 Le genre a été créé en 1870 par l'entomologiste autrichien Gustav Mayr.
 </t>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Cheliomyrmex se rencontrent en Amérique centrale et du Sud, dans les pays suivants : Belize, Brésil, Colombie, Équateur, Guyane française, Guatemala, Guyana, Honduras, Mexique, Panama, Pérou, Suriname, Venezuela[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Cheliomyrmex se rencontrent en Amérique centrale et du Sud, dans les pays suivants : Belize, Brésil, Colombie, Équateur, Guyane française, Guatemala, Guyana, Honduras, Mexique, Panama, Pérou, Suriname, Venezuela.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 mai 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 mai 2023) :
 Cheliomyrmex andicola Emery, 1894
 Cheliomyrmex audax Santschi, 1921
 Cheliomyrmex megalonyx Wheeler, 1921
